--- a/src/attributions/attributions_ig_traj_475.xlsx
+++ b/src/attributions/attributions_ig_traj_475.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG10"/>
+  <dimension ref="A1:GG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,79 +1007,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.4505058523318891</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0.244351309497955</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006734860509291679</v>
+        <v>-0.001294996927079795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07318167032103914</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1093796472988462</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.07624818188297519</v>
       </c>
       <c r="L2" t="n">
         <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.1819651761675748</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01204088291698974</v>
+        <v>0.02047403154812535</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02514869043807774</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02629808244801985</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0.179202534595245</v>
       </c>
       <c r="U2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.0005226644428547175</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0931284442957143</v>
+        <v>-0.01142098779942313</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0348794056609848</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.005719842324259192</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
         <v>-0</v>
@@ -1088,133 +1088,133 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0.1539734489233655</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>0.1222015625552669</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.04327704752520312</v>
+        <v>-0.007973130565890371</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.01647545878326416</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.03453144110748233</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>-0.07260216844690356</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.05311191977630729</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1262254885353656</v>
+        <v>0.06263930157042599</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.01683241105976959</v>
+        <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.03898707846466763</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0.3800041985145637</v>
       </c>
       <c r="AV2" t="n">
         <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.08924683921157603</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.05413448071218472</v>
+        <v>-0.09779416912466242</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1099776350294693</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.1158496113219063</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.1502308647047033</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.1534836506933853</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0001429461436511555</v>
+        <v>0.1009778184498374</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.03217199890395481</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-7.850588392962309e-05</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>0.02276615780905083</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.07647982753982757</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.05828878019200333</v>
+        <v>-0.1632327355909123</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.007639554519345914</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.000318893009018494</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>-0.09750225753647181</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.03115148144972534</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01444573455758167</v>
+        <v>-0.04912258871906942</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.02296892331290826</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.02977151665820945</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
         <v>-0</v>
@@ -1250,25 +1250,25 @@
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>0.1575308841891037</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.07316674924220792</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0124326383060549</v>
+        <v>0.02947392017259585</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02171809853975449</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04332457569637649</v>
+        <v>-0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1277,52 +1277,52 @@
         <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.008928231515021465</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>0.06310445774046425</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.07517013488946091</v>
+        <v>0.11302350949324</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0677029822033028</v>
+        <v>-0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.009503178593057502</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>0.1724305960011671</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.08133339044781608</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02527218786481852</v>
+        <v>0.02974248277682708</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.02396555787658509</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.04210703645197644</v>
+        <v>0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
@@ -1331,79 +1331,79 @@
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>0.08485804074362797</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0.1207334179223142</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02687823893036899</v>
+        <v>-0.02086867508135017</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.08177778290665591</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.002065251462419343</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.05551839592985888</v>
       </c>
       <c r="DP2" t="n">
         <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.004058009809756709</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01242379660192566</v>
+        <v>0.08709067232396704</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.01054542254770776</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.06211850708079895</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.1801956190367895</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>0.1070999758365286</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0138146567202628</v>
+        <v>-0.02782153105994483</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0118030253174858</v>
+        <v>-0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.02560471488485407</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
@@ -1412,52 +1412,52 @@
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0</v>
+        <v>0.100830613843518</v>
       </c>
       <c r="EH2" t="n">
         <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0.03296826173760557</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.03188764126519527</v>
+        <v>0.09529988177614328</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.03134713646432104</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.02828286070929723</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>0.08667155746405804</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.05554544277582604</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.05922747705916728</v>
+        <v>0.01565767147851718</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.02603220514342756</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0213510050856536</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -1466,25 +1466,25 @@
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>0.170625078530698</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.06963877469135504</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02443085053459251</v>
+        <v>0.03737224599198746</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.01417238759159656</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.04274073521444954</v>
+        <v>-0</v>
       </c>
       <c r="FF2" t="n">
         <v>0</v>
@@ -1493,25 +1493,25 @@
         <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.03933326812522981</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0</v>
+        <v>-0.02352417217950863</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.06994509894013747</v>
+        <v>0.0857711925031354</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.01458090399602194</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04232547905929617</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
@@ -1520,52 +1520,52 @@
         <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>0.1140771090576381</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.06705042446545584</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.05947006214300446</v>
+        <v>0.05099820025138803</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.1312434399970882</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1164086812711477</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>0.07441780321743119</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.06088306690605251</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.008274400218488423</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.01253735962728263</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>-0</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>-0</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>-0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>-0</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>-0</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>-0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>-0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>-0</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>-0</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>-0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>-0</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>-0</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>-0</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>-0</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>-0</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>-0</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
@@ -2142,130 +2142,130 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0.03062115259976216</v>
       </c>
       <c r="B4" t="n">
         <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3571079418516472</v>
+        <v>-0.1955275815922316</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4348107167471857</v>
+        <v>-0.17257151035322</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4349963768016512</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>-0.04802955157209386</v>
       </c>
       <c r="K4" t="n">
         <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.365746970378654</v>
+        <v>-0.05651373471752422</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06917368304920901</v>
+        <v>-0.02108756773478567</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2716081732474339</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.0236807673043541</v>
       </c>
       <c r="T4" t="n">
         <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.143876739843617</v>
+        <v>-0.1992897559679832</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02459002266195716</v>
+        <v>-0.1133754542403832</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.04633696849539563</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0.05165228433792743</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.05717728558445345</v>
+        <v>-0.06932481460038355</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1964574283978404</v>
+        <v>-0.1068949030927628</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.1122159493696404</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>-0.02718765331017629</v>
       </c>
       <c r="AL4" t="n">
         <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.1812826668894655</v>
+        <v>0.08052461714031939</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.05275173189443233</v>
+        <v>0.07586887946175391</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
@@ -2274,49 +2274,49 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.09639511172310189</v>
+        <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0.0657902511226558</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.3698086336321415</v>
+        <v>-0.3709723778767429</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3512155642307582</v>
+        <v>-0.6440694554035398</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.5329040392322308</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0.1912558998056247</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.1016512608760714</v>
+        <v>0.08217544607357781</v>
       </c>
       <c r="BF4" t="n">
         <v>-0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1052343635225959</v>
+        <v>0.03374417725315601</v>
       </c>
       <c r="BH4" t="n">
         <v>-0</v>
@@ -2325,268 +2325,268 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0801550051973042</v>
+        <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>0.05657804708269079</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.4808896282112426</v>
+        <v>-0.2707584385663753</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2880869805111695</v>
+        <v>-0.1841849246213437</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.03448359448849787</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0.01571373288459509</v>
       </c>
       <c r="BV4" t="n">
         <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.145272867166032</v>
+        <v>-0.04205322991055547</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.282561711051703</v>
+        <v>-0.1632287545994114</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.1980359413591856</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>0.004848191350634763</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1547716316642947</v>
+        <v>0.06841239082562438</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.1603680656578351</v>
+        <v>0.08186494693737588</v>
       </c>
       <c r="CI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.1002297135788663</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0</v>
+        <v>0.0004278899115772833</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.01715432112336753</v>
+        <v>-0.0119785081708646</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.262015526123218</v>
+        <v>0.3339617115841477</v>
       </c>
       <c r="CR4" t="n">
         <v>-0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1305936268505773</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0.02115484154118716</v>
       </c>
       <c r="CW4" t="n">
         <v>-0</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.1747107699940594</v>
+        <v>0.0372156767764293</v>
       </c>
       <c r="CY4" t="n">
         <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.222105869246439</v>
+        <v>0.02082340058021804</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.118253693798122</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>-0.02700404164792446</v>
       </c>
       <c r="DF4" t="n">
         <v>0</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.3132471955712535</v>
+        <v>-0.00368079002895792</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.3121089124070957</v>
+        <v>0.1901009925726771</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.005932755901427136</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0.2033633889026844</v>
       </c>
       <c r="DO4" t="n">
         <v>0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.1520506751620612</v>
+        <v>0.05319271762902555</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.2734727489704138</v>
+        <v>0.04835993313168636</v>
       </c>
       <c r="DS4" t="n">
         <v>-0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.1644603907855186</v>
+        <v>-0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>0.1057286255996383</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.02328605972094265</v>
+        <v>0.08692639358441072</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.03974911260377059</v>
+        <v>0.05785648057336356</v>
       </c>
       <c r="EB4" t="n">
         <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.1380886860954673</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>0.07722077766713316</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.1987488818253918</v>
+        <v>0.1209126236727128</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.007887908899183874</v>
+        <v>0.04796779558064184</v>
       </c>
       <c r="EK4" t="n">
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
         <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.03817062379633458</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>0.1133141525290822</v>
       </c>
       <c r="EP4" t="n">
         <v>0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.03582215664977418</v>
+        <v>0.04480506257121101</v>
       </c>
       <c r="ER4" t="n">
         <v>-0</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.05686268427596265</v>
+        <v>0.1952866539230739</v>
       </c>
       <c r="ET4" t="n">
         <v>0</v>
@@ -2598,52 +2598,52 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.001065433863502513</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>0.03346275455074199</v>
       </c>
       <c r="EY4" t="n">
         <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.1841442304091047</v>
+        <v>0.04402736527221673</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.1327632145291676</v>
+        <v>0.02623116368395766</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.1491907283010988</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>0</v>
+        <v>-0.001807630908447534</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.02490913128335761</v>
+        <v>0.0150046206251732</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.143044083276136</v>
+        <v>-0.09898439076842994</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
@@ -2652,43 +2652,43 @@
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.1622891705639074</v>
+        <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>-0.00906283408862534</v>
       </c>
       <c r="FQ4" t="n">
         <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.02842686139968228</v>
+        <v>0.001547035093802839</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.002493865565758315</v>
+        <v>0.006039508556990533</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0001673639402392882</v>
+        <v>-0</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0</v>
+        <v>0.03039259621017778</v>
       </c>
       <c r="FZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.07408066158529356</v>
+        <v>-0.04720092184352599</v>
       </c>
       <c r="GB4" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -2706,135 +2706,135 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.1011284522607302</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.238456692718633</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-0.1239170049396501</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2763101888329403</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5432814313661862</v>
+        <v>-0.07258444784265004</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6464130251700471</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2741820163335187</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>-0.06822463842497406</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2625204814901045</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
         <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4062891903844774</v>
+        <v>-0.01074076574964042</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5071553454244592</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>-0.01559377993059474</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.1151609680749472</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1053596852188662</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4174681601119297</v>
+        <v>-0.0002185099850411126</v>
       </c>
       <c r="X5" t="n">
         <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2324333976386398</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0</v>
+        <v>-0.03776068233084083</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0.1230672581492239</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.3382672390148041</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4227525760610716</v>
+        <v>-0.0261862085345809</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.2712628537184814</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0.02940958488101629</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.01087160352067526</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0528885109176636</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.2873496049368037</v>
+        <v>0.01099073724392375</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
@@ -2843,22 +2843,22 @@
         <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.01726373241292689</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.06254241697238057</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0.1411503162645911</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.5941782032287961</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.3914850783608066</v>
+        <v>-0.2062754360066463</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
@@ -2867,55 +2867,55 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.7363211363237141</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0.120959769754411</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.01685496429886224</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.1507020509417941</v>
+        <v>-0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.1281733698318779</v>
+        <v>0.1009471743947578</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.2374980190771394</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0</v>
+        <v>0.00673890519904214</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.07641641262521175</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.05671814374952359</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.2053702088349082</v>
+        <v>-0.1237331144092931</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
@@ -2924,49 +2924,49 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.2867310244059143</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0.0009198392037120118</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.1124103121865303</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.04168888369420934</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.1284707274499325</v>
+        <v>-0.1010656252699253</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.2972233589127156</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>-0.02986108933299455</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.02981860686252328</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.07917845331196748</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.2409292246772889</v>
+        <v>0.01751060621524351</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
@@ -2975,55 +2975,55 @@
         <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.1717767461481657</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>0.04579319710014999</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.01122721754271804</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.03797653863222387</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0137386562637114</v>
+        <v>0.04045168308433263</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.3639967267496693</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0.01577666574735011</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.03666983972159344</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.004005364164503115</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.1491999509617955</v>
+        <v>0.01606321094270193</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
         <v>0</v>
@@ -3032,76 +3032,76 @@
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.1314507313172028</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0.03569055311171988</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.08594772025990499</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.03250345733110149</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.008014343605417733</v>
+        <v>-0.02103898790905519</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.1770379688606048</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0.004810917776666982</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.0471800280732062</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.1838282939975018</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.05125502245243271</v>
+        <v>0.03214099613749245</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
         <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.2277476741132478</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0.02629846220721314</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.108275642338052</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.03106757827552471</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.1256992575716082</v>
+        <v>-0.06625005364730968</v>
       </c>
       <c r="EB5" t="n">
         <v>-0</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0.1669961970671358</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0.02434662461221672</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.03037555766926546</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.06438139427236364</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.5195595489644044</v>
+        <v>-0.01344040023762003</v>
       </c>
       <c r="EK5" t="n">
         <v>-0</v>
@@ -3140,25 +3140,25 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.2473258703518504</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0.01960577694563968</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>0.0267513727478193</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.3535948542449899</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002244378481266072</v>
+        <v>0.07792353491952389</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
         <v>-0</v>
@@ -3167,22 +3167,22 @@
         <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.3733704913986273</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>-0.02022123578310596</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>0.03484850182794873</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02645158279165615</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.2462058148378908</v>
+        <v>0.041388902913031</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
@@ -3191,52 +3191,52 @@
         <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.2126172896121614</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0.01134374694771397</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.01432189747644374</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.1949137344870564</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.09199723540945867</v>
+        <v>0.0950041504360204</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.1925026596039159</v>
+        <v>-0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>-0.03529597212202507</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>0.1291774338078065</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.1038305590599665</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
         <v>0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0008364783526983832</v>
+        <v>0.1687695711088741</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
@@ -3245,19 +3245,19 @@
         <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.02617802089396679</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>0.05586756045222661</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>0.004333027859342422</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.02453247139054317</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
@@ -3266,24 +3266,24 @@
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.2514753502039618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07077013740260046</v>
+        <v>-0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0579663839558074</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1629799219936844</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3319,25 +3319,25 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.08164338690091756</v>
+        <v>-0</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.04148470825388182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1462212842370966</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3346,79 +3346,79 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.07248598005903638</v>
+        <v>-0</v>
       </c>
       <c r="X6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.03135561978034852</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04918780858323248</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.04472050697665642</v>
+        <v>-0</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.06292200650251685</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.06156237274013031</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.055768132784518</v>
+        <v>-0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.01242967175254128</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.007765917105216441</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3427,127 +3427,127 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03033197851526617</v>
+        <v>-0</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0321283712349825</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.1665954403454624</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.1526122573744936</v>
+        <v>-0</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.06588676789557212</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.001357646281702994</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.01546950336859008</v>
+        <v>-0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.001537396600282707</v>
+        <v>0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0.06296137747880863</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01387900706821485</v>
+        <v>-0</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0.01232119598522077</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.05631485665199275</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0130285127416631</v>
+        <v>-0</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.007425980961667498</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0.02708290735881491</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
@@ -3556,163 +3556,163 @@
         <v>0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01577939149222328</v>
+        <v>-0</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.01219290449034969</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.04578540024463924</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY6" t="n">
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.0003890748156269437</v>
+        <v>0</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.01168873075672896</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0.03932996726814857</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
         <v>0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.05289574208324153</v>
+        <v>-0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01788831819423139</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0.004992689087354354</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO6" t="n">
         <v>0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.03587920504476562</v>
+        <v>-0</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.02621558856905501</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.05200934635486601</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02238078347946108</v>
+        <v>-0</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0.03124247327751644</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.0118169832711842</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
         <v>0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.05658057976024455</v>
+        <v>0</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.005841352213371225</v>
+        <v>0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0.04807299710786103</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
         <v>0</v>
@@ -3721,55 +3721,55 @@
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.08893343659063688</v>
+        <v>-0</v>
       </c>
       <c r="ET6" t="n">
         <v>0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.04168253706294891</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0.04548660228350435</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
         <v>0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0150074328182388</v>
+        <v>-0</v>
       </c>
       <c r="FC6" t="n">
         <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.01548691121497698</v>
+        <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0.04820573400319129</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3778,46 +3778,46 @@
         <v>0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.04062257112336505</v>
+        <v>-0</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.04612849870057296</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0.0323201357706881</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR6" t="n">
         <v>0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.00549956220229221</v>
+        <v>-0</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.02222214097585418</v>
+        <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.009036132908965083</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
         <v>0</v>
@@ -3826,2300 +3826,24 @@
         <v>0</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
         <v>0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.02234240686573936</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>-0.03067438941748063</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER7" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ET7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7244015205139984</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2414925497652877</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.597116485205059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.7015735041232407</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.3533927128206243</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.6148416569646756</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.007315314612520186</v>
-      </c>
-      <c r="V8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>-0.3633031673135141</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>-0.2107409734835659</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.1232449575313419</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.3341902656023407</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.3459026769118822</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.1053092440521665</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.1159375419985572</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>-0.02501482903688423</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.5523495076674437</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0.3079731629223324</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>-0.5288666539039301</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0.3875005532920441</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>-0.1432837709947295</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0.119723627209713</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>-0.1755697530264488</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>-0.2121878818684912</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0.2466261087020415</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0.1899338197278846</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0.02676668684298844</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>-0.382288213373116</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>-0.1522650761573513</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>-0.1521814094632462</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0.1480218103048903</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>-0.05759989968853212</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>-0.02315176781290752</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>-0.2622073913100129</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>-0.1012115417899562</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>-0.06494385884782543</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>0.1317152442116276</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>0.0150374899366329</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>0.03366317848222688</v>
-      </c>
-      <c r="DJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DM8" t="n">
-        <v>-0.08754459852614908</v>
-      </c>
-      <c r="DN8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>-0.05664401371767916</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>-0.1102577889614324</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>-0.2505267548376438</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>-0.06308786394968358</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.1291939844148607</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>0.02131453941803341</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>-0.0728371761699404</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>-0.3280900054821962</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>0.139650152215697</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>-0.1893739405326973</v>
-      </c>
-      <c r="ER8" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES8" t="n">
-        <v>0.05908254912817522</v>
-      </c>
-      <c r="ET8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EW8" t="n">
-        <v>0.3417061147547381</v>
-      </c>
-      <c r="EX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ8" t="n">
-        <v>-0.1285496548783941</v>
-      </c>
-      <c r="FA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB8" t="n">
-        <v>-0.1346411805782605</v>
-      </c>
-      <c r="FC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FF8" t="n">
-        <v>0.1984942638403913</v>
-      </c>
-      <c r="FG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI8" t="n">
-        <v>-0.2791022946926321</v>
-      </c>
-      <c r="FJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK8" t="n">
-        <v>0.03998390548083981</v>
-      </c>
-      <c r="FL8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO8" t="n">
-        <v>0.1769248136416028</v>
-      </c>
-      <c r="FP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FR8" t="n">
-        <v>-0.1418074425542047</v>
-      </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT8" t="n">
-        <v>0.007493901376781835</v>
-      </c>
-      <c r="FU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FW8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FX8" t="n">
-        <v>-0.1146939536496099</v>
-      </c>
-      <c r="FY8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FZ8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>0.1415914233708232</v>
-      </c>
-      <c r="GB8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GC8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" t="n">
-        <v>0.2037749526533155</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.3289473546462621</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.06457580132039779</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.0184758951286215</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3203342449876891</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-0.06767009734698382</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-0.0903430721100298</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.009700560976317907</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>-0.03079754434829483</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>-0.09262083489705424</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.01217023141078371</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.02141809447882936</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.03046592930754428</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.05807991763877521</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>-0.0129744926367949</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>-0.02036955274087461</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.1615578654994556</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>-0.06906871571733002</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>-0.02656784712235651</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0.05584399655460184</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>-0.01290942496110967</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>0.03288002715656861</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>-0.01806202417831028</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0.01432502004785209</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0.06536207718103136</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0.1238394425711371</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>-0.02859129065580225</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>-0.008326220858213879</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>-0.06666258574255024</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0.01075481269135368</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0.01308228092445227</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>-0.01354012609614122</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>0.01060964463963761</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>-0.0418607480373585</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>-0.05836319182295557</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0.01319529581819425</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>-0.01004455223057878</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>-0.005187476720930295</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>0.005732001816506753</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>-0.002563219928429188</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DM9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DN9" t="n">
-        <v>0.006219887768695219</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>-0.01304239394967411</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>0.002931613448059112</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>-0.01307276356191135</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>-0.007116187061545043</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>-0.006647603519989599</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>0.09508543767039876</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>0.009244599212749172</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>0.01840822940373226</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>-0.02734089679165724</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>-0.0255639315311211</v>
-      </c>
-      <c r="ER9" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES9" t="n">
-        <v>-0.008013612393929871</v>
-      </c>
-      <c r="ET9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EU9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX9" t="n">
-        <v>-0.05840022228324352</v>
-      </c>
-      <c r="EY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ9" t="n">
-        <v>0.009951300336324629</v>
-      </c>
-      <c r="FA9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FB9" t="n">
-        <v>-0.006759251689125151</v>
-      </c>
-      <c r="FC9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FD9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG9" t="n">
-        <v>-0.04432708948252632</v>
-      </c>
-      <c r="FH9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FI9" t="n">
-        <v>0.01239215264778657</v>
-      </c>
-      <c r="FJ9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FK9" t="n">
-        <v>-0.02141222697176674</v>
-      </c>
-      <c r="FL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FP9" t="n">
-        <v>-0.03348692106793138</v>
-      </c>
-      <c r="FQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
-        <v>0.01728419990964903</v>
-      </c>
-      <c r="FS9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FT9" t="n">
-        <v>0.006370984113478748</v>
-      </c>
-      <c r="FU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY9" t="n">
-        <v>0.04312801747722118</v>
-      </c>
-      <c r="FZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>-0.01741124688483677</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER10" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="ET10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="FU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG10" t="n">
         <v>0</v>
       </c>
     </row>
